--- a/data.xlsx
+++ b/data.xlsx
@@ -56,7 +56,7 @@
     <t>state</t>
   </si>
   <si>
-    <t>type</t>
+    <t>sector</t>
   </si>
   <si>
     <t>Google</t>
@@ -440,7 +440,7 @@
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
